--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,124 +49,124 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
@@ -175,36 +175,24 @@
     <t>like</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -214,67 +202,58 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -638,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,16 +757,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,38 +786,38 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7887323943661971</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5">
+        <v>0.8615384615384616</v>
+      </c>
+      <c r="L5">
         <v>56</v>
       </c>
-      <c r="D5">
+      <c r="M5">
         <v>56</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>23</v>
-      </c>
       <c r="N5">
         <v>1</v>
       </c>
@@ -849,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6881720430107527</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>0.75</v>
@@ -957,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6571428571428571</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.6792452830188679</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6407766990291263</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.5868005738880918</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L9">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>288</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.516597510373444</v>
+        <v>0.5352697095435685</v>
       </c>
       <c r="L11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M11">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6190476190476191</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.4762295081967213</v>
+        <v>0.469672131147541</v>
       </c>
       <c r="L12">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M12">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6134453781512605</v>
+        <v>0.5625</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.4528301886792453</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L13">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6052631578947368</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.3883792048929663</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L14">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,16 +1357,16 @@
         <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5043478260869565</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C17">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>171</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.3253012048192771</v>
+        <v>0.265625</v>
       </c>
       <c r="L17">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4736842105263158</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L18">
         <v>32</v>
@@ -1499,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.462962962962963</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.2307692307692308</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4296875</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,16 +1557,16 @@
         <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.2</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>100</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4265402843601896</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.1935483870967742</v>
+        <v>0.192</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4216867469879518</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.1927710843373494</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L22">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4173228346456693</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,31 +1704,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.1904761904761905</v>
+        <v>0.1817383669885865</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.1649122807017544</v>
+        <v>0.09870129870129871</v>
       </c>
       <c r="L24">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="M24">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="N24">
         <v>0.99</v>
@@ -1799,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>952</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3968253968253968</v>
+        <v>0.34375</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.1197771587743733</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3809523809523809</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,31 +1854,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.0935672514619883</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L26">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1395</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.359375</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,31 +1904,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0.09090909090909091</v>
+        <v>0.048</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>340</v>
+        <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,13 +1936,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2921348314606741</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1975,31 +1954,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>63</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28">
-        <v>0.07931034482758621</v>
-      </c>
-      <c r="L28">
-        <v>23</v>
-      </c>
-      <c r="M28">
-        <v>23</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>267</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +1962,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2905982905982906</v>
+        <v>0.2393162393162393</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,31 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>83</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29">
-        <v>0.07739938080495357</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>26</v>
-      </c>
-      <c r="N29">
-        <v>0.96</v>
-      </c>
-      <c r="O29">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>298</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +1988,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2821782178217822</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C30">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,31 +2006,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>145</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30">
-        <v>0.05066666666666667</v>
-      </c>
-      <c r="L30">
-        <v>38</v>
-      </c>
-      <c r="M30">
-        <v>40</v>
-      </c>
-      <c r="N30">
-        <v>0.95</v>
-      </c>
-      <c r="O30">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>712</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2014,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2577319587628866</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>144</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,13 +2040,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2391304347826087</v>
+        <v>0.22</v>
       </c>
       <c r="C32">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2151,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>210</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2159,25 +2066,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1962025316455696</v>
+        <v>0.1988472622478386</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2185,13 +2092,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.19</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2203,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>162</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2211,13 +2118,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1869436201780415</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C35">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2229,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2237,13 +2144,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1839080459770115</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C36">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2255,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>284</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2263,13 +2170,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1785714285714286</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2281,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2289,13 +2196,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1775700934579439</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2307,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2315,13 +2222,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1772151898734177</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D39">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2333,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>260</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2341,25 +2248,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1518324607329843</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2367,25 +2274,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1497797356828194</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="C41">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>386</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2393,7 +2300,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1464968152866242</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C42">
         <v>23</v>
@@ -2411,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>134</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2419,25 +2326,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1371428571428571</v>
+        <v>0.1015037593984962</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2445,25 +2352,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1278195488721804</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>232</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2471,25 +2378,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1093117408906883</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>220</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2497,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.096045197740113</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2523,25 +2430,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07933884297520662</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="C47">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D47">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F47">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2549,25 +2456,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07885304659498207</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E48">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F48">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>257</v>
+        <v>742</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2575,129 +2482,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.07589285714285714</v>
+        <v>0.04134762633996937</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D49">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.07397260273972603</v>
-      </c>
-      <c r="C50">
-        <v>27</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.06744186046511629</v>
-      </c>
-      <c r="C51">
-        <v>29</v>
-      </c>
-      <c r="D51">
-        <v>33</v>
-      </c>
-      <c r="E51">
-        <v>0.12</v>
-      </c>
-      <c r="F51">
-        <v>0.88</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.05504587155963303</v>
-      </c>
-      <c r="C52">
-        <v>36</v>
-      </c>
-      <c r="D52">
-        <v>37</v>
-      </c>
-      <c r="E52">
-        <v>0.03</v>
-      </c>
-      <c r="F52">
-        <v>0.97</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.05082592121982211</v>
-      </c>
-      <c r="C53">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <v>47</v>
-      </c>
-      <c r="E53">
-        <v>0.15</v>
-      </c>
-      <c r="F53">
-        <v>0.85</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>747</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
